--- a/pos_febr/results/paper_table3_mu.xlsx
+++ b/pos_febr/results/paper_table3_mu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Statistical test</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Pval adj.</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Statistic</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>H0 rejected</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Pval adj.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Statistical test</t>
         </is>
       </c>
     </row>
@@ -471,18 +476,21 @@
           <t>T1</t>
         </is>
       </c>
-      <c r="C2" t="b">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Mann–Whitney U test</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="F2" t="b">
         <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.0526</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Mann–Whitney U test</t>
-        </is>
       </c>
     </row>
     <row r="3">
@@ -496,18 +504,21 @@
           <t>T2</t>
         </is>
       </c>
-      <c r="C3" t="b">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mann–Whitney U test</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.493</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>173</v>
+      </c>
+      <c r="F3" t="b">
         <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.493</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Mann–Whitney U test</t>
-        </is>
       </c>
     </row>
     <row r="4">
@@ -521,18 +532,21 @@
           <t>T3</t>
         </is>
       </c>
-      <c r="C4" t="b">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Mann–Whitney U test</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.479</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="F4" t="b">
         <v>0</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.479</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Mann–Whitney U test</t>
-        </is>
       </c>
     </row>
     <row r="5">
@@ -546,18 +560,21 @@
           <t>T1</t>
         </is>
       </c>
-      <c r="C5" t="b">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mann–Whitney U test</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.247</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="F5" t="b">
         <v>0</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.247</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Mann–Whitney U test</t>
-        </is>
       </c>
     </row>
     <row r="6">
@@ -571,18 +588,21 @@
           <t>T2</t>
         </is>
       </c>
-      <c r="C6" t="b">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Mann–Whitney U test</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.886</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>83</v>
+      </c>
+      <c r="F6" t="b">
         <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.886</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Mann–Whitney U test</t>
-        </is>
       </c>
     </row>
     <row r="7">
@@ -596,18 +616,21 @@
           <t>T3</t>
         </is>
       </c>
-      <c r="C7" t="b">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Mann–Whitney U test</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.886</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="F7" t="b">
         <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.886</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Mann–Whitney U test</t>
-        </is>
       </c>
     </row>
     <row r="8">
@@ -621,18 +644,21 @@
           <t>T1</t>
         </is>
       </c>
-      <c r="C8" t="b">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mann–Whitney U test</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>377</v>
+      </c>
+      <c r="F8" t="b">
         <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Mann–Whitney U test</t>
-        </is>
       </c>
     </row>
     <row r="9">
@@ -646,18 +672,21 @@
           <t>T2</t>
         </is>
       </c>
-      <c r="C9" t="b">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Mann–Whitney U test</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="F9" t="b">
         <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.0045</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Mann–Whitney U test</t>
-        </is>
       </c>
     </row>
     <row r="10">
@@ -671,18 +700,21 @@
           <t>T3</t>
         </is>
       </c>
-      <c r="C10" t="b">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Mann–Whitney U test</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>292</v>
+      </c>
+      <c r="F10" t="b">
         <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Mann–Whitney U test</t>
-        </is>
       </c>
     </row>
     <row r="11">
@@ -696,18 +728,21 @@
           <t>T1</t>
         </is>
       </c>
-      <c r="C11" t="b">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mann–Whitney U test</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>164</v>
+      </c>
+      <c r="F11" t="b">
         <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Mann–Whitney U test</t>
-        </is>
       </c>
     </row>
     <row r="12">
@@ -721,18 +756,21 @@
           <t>T2</t>
         </is>
       </c>
-      <c r="C12" t="b">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Mann–Whitney U test</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.168</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>251</v>
+      </c>
+      <c r="F12" t="b">
         <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.168</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Mann–Whitney U test</t>
-        </is>
       </c>
     </row>
     <row r="13">
@@ -746,18 +784,21 @@
           <t>T3</t>
         </is>
       </c>
-      <c r="C13" t="b">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Mann–Whitney U test</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>410</v>
+      </c>
+      <c r="F13" t="b">
         <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.0771</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Mann–Whitney U test</t>
-        </is>
       </c>
     </row>
   </sheetData>
